--- a/results/mp/tinybert/corona/confidence/210/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,268 +40,283 @@
     <t>name</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>i</t>
   </si>
   <si>
     <t>?</t>
@@ -662,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>26</v>
       </c>
-      <c r="K3">
-        <v>0.96875</v>
-      </c>
-      <c r="L3">
-        <v>31</v>
-      </c>
       <c r="M3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7467532467532467</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>364</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.625</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6190476190476191</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0.8333333333333334</v>
@@ -1081,37 +1096,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.1474103585657371</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4892703862660944</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4074074074074074</v>
+        <v>0.064343163538874</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8235294117647058</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,37 +1246,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3478260869565217</v>
+        <v>0.0066942939113803</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>3116</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,95 +1288,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>56</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
       </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>62</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7962962962962963</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,45 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2296296296296296</v>
-      </c>
-      <c r="C16">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>104</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,509 +1366,437 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1909090909090909</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>89</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>90</v>
+      </c>
+      <c r="M18">
+        <v>90</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L20">
+        <v>38</v>
+      </c>
+      <c r="M20">
+        <v>38</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L21">
+        <v>78</v>
+      </c>
+      <c r="M21">
+        <v>78</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>0.69375</v>
+      </c>
+      <c r="L24">
+        <v>111</v>
+      </c>
+      <c r="M24">
+        <v>111</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L25">
+        <v>43</v>
+      </c>
+      <c r="M25">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.68</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L27">
+        <v>60</v>
+      </c>
+      <c r="M27">
+        <v>60</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0.6031331592689295</v>
+      </c>
+      <c r="L28">
+        <v>231</v>
+      </c>
+      <c r="M28">
+        <v>231</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>18</v>
       </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1075268817204301</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>0.5627118644067797</v>
+      </c>
+      <c r="L30">
         <v>166</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
-      <c r="M18">
-        <v>29</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>34</v>
-      </c>
-      <c r="E19">
-        <v>0.71</v>
-      </c>
-      <c r="F19">
-        <v>0.29</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1530</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L19">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>43</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="M30">
+        <v>166</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>18</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L22">
-        <v>19</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L23">
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>22</v>
-      </c>
-      <c r="M23">
-        <v>22</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L24">
-        <v>48</v>
-      </c>
-      <c r="M24">
-        <v>48</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="L25">
-        <v>19</v>
-      </c>
-      <c r="M25">
-        <v>19</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.64</v>
-      </c>
-      <c r="L26">
-        <v>16</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.6291079812206573</v>
-      </c>
-      <c r="L27">
-        <v>134</v>
-      </c>
-      <c r="M27">
-        <v>134</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L28">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>13</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>11</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.55</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.52</v>
-      </c>
-      <c r="L31">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>13</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32">
-        <v>0.52</v>
-      </c>
-      <c r="L32">
-        <v>13</v>
-      </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5193798449612403</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L33">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1937,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5138888888888888</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1963,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1989,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2015,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4782608695652174</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2041,47 +1912,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.4666666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.4583333333333333</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2093,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.4054054054054054</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2119,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.375</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2145,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3684210526315789</v>
+        <v>0.375</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2171,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.1408450704225352</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2197,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.1379310344827586</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="L44">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2223,73 +2094,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.1041666666666667</v>
+        <v>0.09832134292565947</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>86</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.08292682926829269</v>
+        <v>0.08674698795180723</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.07518796992481203</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2301,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>123</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.07177033492822966</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2327,47 +2198,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>194</v>
+        <v>832</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.06787330316742081</v>
+        <v>0.06484295845997974</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>206</v>
+        <v>923</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.06565656565656566</v>
+        <v>0.06398537477148081</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2379,47 +2250,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>185</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.06338028169014084</v>
+        <v>0.0595482546201232</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>399</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.05707196029776675</v>
+        <v>0.05916666666666667</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2431,99 +2302,99 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>380</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.05263157894736842</v>
+        <v>0.05392912172573189</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>432</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.04761904761904762</v>
+        <v>0.05311778290993072</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M54">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>200</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.04740406320541761</v>
+        <v>0.05159705159705159</v>
       </c>
       <c r="L55">
         <v>21</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>422</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.03492063492063492</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L56">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M56">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2535,333 +2406,333 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>304</v>
+        <v>857</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.0345945945945946</v>
+        <v>0.04793117574764441</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="N57">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>893</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.03384615384615385</v>
+        <v>0.04611923509561305</v>
       </c>
       <c r="L58">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N58">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O58">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>314</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.02867383512544803</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.18</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1084</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.02771362586605081</v>
+        <v>0.04531151667715545</v>
       </c>
       <c r="L60">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N60">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>421</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.02684563758389262</v>
+        <v>0.04172526957337084</v>
       </c>
       <c r="L61">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N61">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="O61">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>435</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.02641056422569028</v>
+        <v>0.03874538745387454</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M62">
         <v>23</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>811</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.02534318901795143</v>
+        <v>0.03641092327698309</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N63">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>923</v>
+        <v>741</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.02507836990595611</v>
+        <v>0.03587893365403889</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>622</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.02402957486136784</v>
+        <v>0.03314285714285714</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>528</v>
+        <v>846</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.02310924369747899</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="L66">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N66">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="O66">
-        <v>0.35</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>465</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.02113739305485657</v>
+        <v>0.0329244673983215</v>
       </c>
       <c r="L67">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M67">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1945</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.02027748132337246</v>
+        <v>0.03224553224553225</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="N68">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O68">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>918</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.01986408782017773</v>
+        <v>0.03128911138923655</v>
       </c>
       <c r="L69">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N69">
         <v>0.93</v>
@@ -2873,137 +2744,423 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1875</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.01544401544401544</v>
+        <v>0.02968036529680365</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N70">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1530</v>
+        <v>850</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.01383647798742138</v>
+        <v>0.02876106194690265</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1568</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.01376936316695353</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1719</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.01261467889908257</v>
+        <v>0.02646239554317549</v>
       </c>
       <c r="L73">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N73">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O73">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>861</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K74">
+        <v>0.02550571679859279</v>
+      </c>
+      <c r="L74">
+        <v>29</v>
+      </c>
+      <c r="M74">
+        <v>32</v>
+      </c>
+      <c r="N74">
+        <v>0.91</v>
+      </c>
+      <c r="O74">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K75">
+        <v>0.02511627906976744</v>
+      </c>
+      <c r="L75">
+        <v>54</v>
+      </c>
+      <c r="M75">
+        <v>62</v>
+      </c>
+      <c r="N75">
+        <v>0.87</v>
+      </c>
+      <c r="O75">
+        <v>0.13</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K76">
+        <v>0.02422907488986784</v>
+      </c>
+      <c r="L76">
+        <v>33</v>
+      </c>
+      <c r="M76">
+        <v>34</v>
+      </c>
+      <c r="N76">
+        <v>0.97</v>
+      </c>
+      <c r="O76">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K77">
+        <v>0.02420051858254105</v>
+      </c>
+      <c r="L77">
+        <v>28</v>
+      </c>
+      <c r="M77">
+        <v>32</v>
+      </c>
+      <c r="N77">
+        <v>0.88</v>
+      </c>
+      <c r="O77">
+        <v>0.12</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K78">
+        <v>0.0240506329113924</v>
+      </c>
+      <c r="L78">
+        <v>57</v>
+      </c>
+      <c r="M78">
+        <v>66</v>
+      </c>
+      <c r="N78">
+        <v>0.86</v>
+      </c>
+      <c r="O78">
+        <v>0.14</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K74">
-        <v>0.01009081735620585</v>
-      </c>
-      <c r="L74">
-        <v>10</v>
-      </c>
-      <c r="M74">
-        <v>13</v>
-      </c>
-      <c r="N74">
-        <v>0.77</v>
-      </c>
-      <c r="O74">
-        <v>0.23</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>981</v>
+      <c r="K79">
+        <v>0.02336448598130841</v>
+      </c>
+      <c r="L79">
+        <v>30</v>
+      </c>
+      <c r="M79">
+        <v>35</v>
+      </c>
+      <c r="N79">
+        <v>0.86</v>
+      </c>
+      <c r="O79">
+        <v>0.14</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K80">
+        <v>0.02211621856027754</v>
+      </c>
+      <c r="L80">
+        <v>51</v>
+      </c>
+      <c r="M80">
+        <v>54</v>
+      </c>
+      <c r="N80">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O80">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K81">
+        <v>0.02177438035672921</v>
+      </c>
+      <c r="L81">
+        <v>94</v>
+      </c>
+      <c r="M81">
+        <v>105</v>
+      </c>
+      <c r="N81">
+        <v>0.9</v>
+      </c>
+      <c r="O81">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K82">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="L82">
+        <v>21</v>
+      </c>
+      <c r="M82">
+        <v>23</v>
+      </c>
+      <c r="N82">
+        <v>0.91</v>
+      </c>
+      <c r="O82">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83">
+        <v>0.02012578616352201</v>
+      </c>
+      <c r="L83">
+        <v>64</v>
+      </c>
+      <c r="M83">
+        <v>85</v>
+      </c>
+      <c r="N83">
+        <v>0.75</v>
+      </c>
+      <c r="O83">
+        <v>0.25</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K84">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="L84">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>20</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K85">
+        <v>0.01798410706817231</v>
+      </c>
+      <c r="L85">
+        <v>43</v>
+      </c>
+      <c r="M85">
+        <v>46</v>
+      </c>
+      <c r="N85">
+        <v>0.93</v>
+      </c>
+      <c r="O85">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>2348</v>
       </c>
     </row>
   </sheetData>
